--- a/src/sample_output/output_gpu_test.xlsx
+++ b/src/sample_output/output_gpu_test.xlsx
@@ -294,15 +294,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>grand</c:v>
+                  <c:v>GPUArray.rand</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -366,136 +366,6 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>6.3299999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.6000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.11E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.7199999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.2299999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.28E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.2299999999999996E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.8299999999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.2000000000000003E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.2499999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.2600000000000004E-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.2600000000000004E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.2699999999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.2E-4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.2600000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.1300000000000005E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GPUArray.rand</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>30000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
               <c:f>Sheet1!$E$2:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -554,7 +424,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -562,11 +431,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="47674880"/>
-        <c:axId val="47119360"/>
+        <c:axId val="87335680"/>
+        <c:axId val="87337600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47674880"/>
+        <c:axId val="87335680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -595,12 +464,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47119360"/>
+        <c:crossAx val="87337600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47119360"/>
+        <c:axId val="87337600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -635,7 +504,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47674880"/>
+        <c:crossAx val="87335680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -696,7 +565,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -983,11 +851,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="100559104"/>
-        <c:axId val="102121856"/>
+        <c:axId val="102451840"/>
+        <c:axId val="102458112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100559104"/>
+        <c:axId val="102451840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1009,19 +877,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102121856"/>
+        <c:crossAx val="102458112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102121856"/>
+        <c:axId val="102458112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1049,14 +916,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100559104"/>
+        <c:crossAx val="102451840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1404,11 +1270,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="106117376"/>
-        <c:axId val="106127744"/>
+        <c:axId val="102496128"/>
+        <c:axId val="103165952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106117376"/>
+        <c:axId val="102496128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1437,12 +1303,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106127744"/>
+        <c:crossAx val="103165952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106127744"/>
+        <c:axId val="103165952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1477,7 +1343,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106117376"/>
+        <c:crossAx val="102496128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1538,7 +1404,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1825,11 +1690,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="102853632"/>
-        <c:axId val="106161280"/>
+        <c:axId val="103191680"/>
+        <c:axId val="103193600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="102853632"/>
+        <c:axId val="103191680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1851,19 +1716,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106161280"/>
+        <c:crossAx val="103193600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106161280"/>
+        <c:axId val="103193600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1891,14 +1755,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102853632"/>
+        <c:crossAx val="103191680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2246,11 +2109,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="105611264"/>
-        <c:axId val="105613184"/>
+        <c:axId val="104612224"/>
+        <c:axId val="104614144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="105611264"/>
+        <c:axId val="104612224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2279,12 +2142,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105613184"/>
+        <c:crossAx val="104614144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="105613184"/>
+        <c:axId val="104614144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2319,7 +2182,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105611264"/>
+        <c:crossAx val="104612224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2667,11 +2530,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="106246912"/>
-        <c:axId val="106248832"/>
+        <c:axId val="104661376"/>
+        <c:axId val="104663296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106246912"/>
+        <c:axId val="104661376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2700,12 +2563,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106248832"/>
+        <c:crossAx val="104663296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106248832"/>
+        <c:axId val="104663296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2740,7 +2603,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106246912"/>
+        <c:crossAx val="104661376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3088,11 +2951,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="106448384"/>
-        <c:axId val="106450304"/>
+        <c:axId val="104672640"/>
+        <c:axId val="104695296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106448384"/>
+        <c:axId val="104672640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3121,12 +2984,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106450304"/>
+        <c:crossAx val="104695296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106450304"/>
+        <c:axId val="104695296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3161,7 +3024,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106448384"/>
+        <c:crossAx val="104672640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3509,11 +3372,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="105507072"/>
-        <c:axId val="105578880"/>
+        <c:axId val="104721024"/>
+        <c:axId val="104792832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="105507072"/>
+        <c:axId val="104721024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3542,12 +3405,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105578880"/>
+        <c:crossAx val="104792832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="105578880"/>
+        <c:axId val="104792832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3582,7 +3445,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105507072"/>
+        <c:crossAx val="104721024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3793,138 +3656,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>grand</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$18:$B$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>30000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$18:$D$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>5.9000000000000003E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.4599999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1180000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.3300000000000004E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.2999999999999996E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1019999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.9399999999999996E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.7899999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1509999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.188E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.4620000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.3500000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.3680000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.49E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.4630000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.5250000000000001E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$E$1</c:f>
@@ -4060,11 +3793,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="100063104"/>
-        <c:axId val="100296960"/>
+        <c:axId val="102572800"/>
+        <c:axId val="102574720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100063104"/>
+        <c:axId val="102572800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4093,12 +3826,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100296960"/>
+        <c:crossAx val="102574720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100296960"/>
+        <c:axId val="102574720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4133,7 +3866,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100063104"/>
+        <c:crossAx val="102572800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4344,138 +4077,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>grand</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$34:$B$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>30000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$34:$D$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>6.87E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2460000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.122E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4469999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.4400000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.139E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.1779999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.163E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1609999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.7299999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0970000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.23E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.3240000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3420000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.3979999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.273E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$E$1</c:f>
@@ -4611,11 +4214,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="80458112"/>
-        <c:axId val="81014784"/>
+        <c:axId val="102626048"/>
+        <c:axId val="102627968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80458112"/>
+        <c:axId val="102626048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4644,12 +4247,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81014784"/>
+        <c:crossAx val="102627968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81014784"/>
+        <c:axId val="102627968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4684,7 +4287,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80458112"/>
+        <c:crossAx val="102626048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4895,138 +4498,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>grand</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$50:$B$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>30000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$50:$D$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1.3129999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.266E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.6199999999999996E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.1300000000000005E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.315E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2869999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2830000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.083E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.8800000000000003E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.389E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3760000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.5479999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.5300000000000003E-4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.6599999999999997E-4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.586E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.66E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$E$1</c:f>
@@ -5162,11 +4635,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="50459776"/>
-        <c:axId val="50461696"/>
+        <c:axId val="102740736"/>
+        <c:axId val="102742656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50459776"/>
+        <c:axId val="102740736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5195,12 +4668,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50461696"/>
+        <c:crossAx val="102742656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50461696"/>
+        <c:axId val="102742656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5235,7 +4708,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50459776"/>
+        <c:crossAx val="102740736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5446,138 +4919,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>grand</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$66:$B$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>30000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$66:$D$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>9.4300000000000004E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.4200000000000004E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.292E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2669999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2750000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.3000000000000003E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.2200000000000005E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.3090000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.305E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.359E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.4630000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.4100000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.405E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.4710000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.518E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.067E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$E$1</c:f>
@@ -5713,11 +5056,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="51534464"/>
-        <c:axId val="50402048"/>
+        <c:axId val="102767232"/>
+        <c:axId val="102781696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51534464"/>
+        <c:axId val="102767232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5746,12 +5089,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50402048"/>
+        <c:crossAx val="102781696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50402048"/>
+        <c:axId val="102781696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5786,7 +5129,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51534464"/>
+        <c:crossAx val="102767232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5997,138 +5340,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>grand</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$82:$B$97</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>30000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$82:$D$97</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>9.7900000000000005E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.6900000000000003E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.4499999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.7499999999999996E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.31E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.8900000000000008E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.8799999999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.9200000000000004E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.026E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.1999999999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0510000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.134E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.1400000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.1600000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.2849999999999999E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$E$1</c:f>
@@ -6264,11 +5477,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="99883648"/>
-        <c:axId val="51086080"/>
+        <c:axId val="102824576"/>
+        <c:axId val="102302464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99883648"/>
+        <c:axId val="102824576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6297,12 +5510,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51086080"/>
+        <c:crossAx val="102302464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51086080"/>
+        <c:axId val="102302464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6337,7 +5550,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99883648"/>
+        <c:crossAx val="102824576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6548,138 +5761,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>grand</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$98:$B$113</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>30000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$98:$D$113</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>5.0900000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0600000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.4700000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.5699999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.53E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.9600000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.21E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.5000000000000003E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.8799999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.8999999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.3599999999999996E-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.9600000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.33E-4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.0499999999999996E-4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.8700000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.8700000000000002E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$E$1</c:f>
@@ -6815,11 +5898,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="48739456"/>
-        <c:axId val="48741376"/>
+        <c:axId val="102331520"/>
+        <c:axId val="102333440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48739456"/>
+        <c:axId val="102331520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6848,12 +5931,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48741376"/>
+        <c:crossAx val="102333440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48741376"/>
+        <c:axId val="102333440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6888,7 +5971,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48739456"/>
+        <c:crossAx val="102331520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7099,138 +6182,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>grand</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$114:$B$129</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>30000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$114:$D$129</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>2.653E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.2360000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.274E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.2220000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5959999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.2900000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.2269999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.5380000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.679E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.6210000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.9529999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.5989999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.496E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.8919999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.9529999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.5569999999999998E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$E$1</c:f>
@@ -7366,11 +6319,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="100616448"/>
-        <c:axId val="102498688"/>
+        <c:axId val="103105664"/>
+        <c:axId val="103107584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100616448"/>
+        <c:axId val="103105664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7399,12 +6352,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102498688"/>
+        <c:crossAx val="103107584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102498688"/>
+        <c:axId val="103107584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7439,7 +6392,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100616448"/>
+        <c:crossAx val="103105664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7787,11 +6740,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="103281792"/>
-        <c:axId val="103284096"/>
+        <c:axId val="103124352"/>
+        <c:axId val="103147008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="103281792"/>
+        <c:axId val="103124352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7820,12 +6773,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103284096"/>
+        <c:crossAx val="103147008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103284096"/>
+        <c:axId val="103147008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7860,7 +6813,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103281792"/>
+        <c:crossAx val="103124352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8695,8 +7648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
